--- a/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="-90" windowWidth="17415" windowHeight="11880"/>
+    <workbookView xWindow="60" yWindow="-120" windowWidth="17415" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="IPO_4" sheetId="4" r:id="rId4"/>
     <sheet name="IPO_5" sheetId="5" r:id="rId5"/>
     <sheet name="IPO_6" sheetId="6" r:id="rId6"/>
+    <sheet name="IPO_7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">IPO_1!$1:$9</definedName>
@@ -21,13 +22,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">IPO_4!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">IPO_5!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">IPO_6!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">IPO_7!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="85">
   <si>
     <t>バイエル薬品
 手配管理システム</t>
@@ -408,16 +410,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現画面のURL</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BtnInsert_Click</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -576,16 +568,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会番号/TOP請求書番号</t>
-    <rPh sb="9" eb="12">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トランザクションID</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -625,9 +607,6 @@
   </si>
   <si>
     <t>講演会名</t>
-  </si>
-  <si>
-    <t>TOP請求書番号</t>
   </si>
   <si>
     <t>精算年月</t>
@@ -692,56 +671,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>精算金額入力画面へ遷移する。</t>
-    <rPh sb="0" eb="2">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>講演会番号　昇順、トップツアー請求年月　降順、TOP請求書番号　降順</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2)</t>
   </si>
   <si>
@@ -754,12 +683,126 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>戻るボタン押下時処理</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼び元画面へ戻る。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BtnBack_Click</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新処理であることを示す値</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録処理であることを示す値</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号　昇順、</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号/トップツアー請求番号</t>
+    <rPh sb="12" eb="14">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップツアー請求年月　降順、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップツアー請求番号　降順</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップツアー請求番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1115,13 +1158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,42 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,6 +1203,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,6 +1238,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,6 +1917,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 表示 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="1771650"/>
+          <a:ext cx="1562100" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>呼び元画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -2167,204 +2293,204 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="45"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="22">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2372,70 +2498,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="16" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2495,7 +2621,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2549,7 +2675,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2607,7 +2733,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2660,7 +2786,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2711,7 +2837,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2761,7 +2887,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2814,7 +2940,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2867,7 +2993,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2920,7 +3046,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2969,7 +3095,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3017,7 +3143,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3069,7 +3195,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3119,7 +3245,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3173,7 +3299,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3227,7 +3353,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3280,7 +3406,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3333,7 +3459,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3386,7 +3512,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3439,7 +3565,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3492,7 +3618,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3546,7 +3672,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3599,7 +3725,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3651,7 +3777,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3702,7 +3828,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3753,7 +3879,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3804,7 +3930,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3858,7 +3984,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3912,7 +4038,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3965,7 +4091,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -4021,12 +4147,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
@@ -4035,8 +4157,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4047,6 +4167,12 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4065,208 +4191,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="45"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="22">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="22">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
         <v>41575</v>
       </c>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4274,70 +4400,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="16" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4397,7 +4523,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4451,7 +4577,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4467,7 +4593,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
@@ -4483,7 +4609,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4509,7 +4635,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4522,7 +4648,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
@@ -4566,7 +4692,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4618,7 +4744,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4668,7 +4794,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4717,7 +4843,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4769,7 +4895,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4822,7 +4948,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4875,7 +5001,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4902,7 +5028,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4929,7 +5055,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4956,7 +5082,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4983,7 +5109,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5010,7 +5136,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5037,7 +5163,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5090,7 +5216,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5143,7 +5269,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5196,7 +5322,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5250,7 +5376,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5303,7 +5429,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5355,7 +5481,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5406,7 +5532,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5457,7 +5583,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5508,7 +5634,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5562,7 +5688,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5616,7 +5742,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5669,7 +5795,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -5725,12 +5851,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
@@ -5739,8 +5861,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -5751,6 +5871,12 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5769,204 +5895,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="45"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="22">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41576</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5974,70 +6104,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6097,7 +6227,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6151,7 +6281,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6167,7 +6297,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -6209,7 +6339,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6222,8 +6352,12 @@
       <c r="J12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -6258,7 +6392,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6306,7 +6440,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6354,7 +6488,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6402,7 +6536,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6453,7 +6587,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6504,7 +6638,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6553,7 +6687,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6601,7 +6735,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6653,7 +6787,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6703,7 +6837,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6757,7 +6891,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6811,7 +6945,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6864,7 +6998,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -6917,7 +7051,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -6970,7 +7104,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7023,7 +7157,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7076,7 +7210,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7130,7 +7264,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -7183,7 +7317,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7235,7 +7369,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7286,7 +7420,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -7337,7 +7471,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -7388,7 +7522,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -7442,7 +7576,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -7496,7 +7630,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7549,7 +7683,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -7605,12 +7739,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
@@ -7619,8 +7749,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7631,6 +7759,12 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7650,204 +7784,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="45"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="22">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41576</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7855,70 +7993,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="16" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7978,7 +8116,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8032,7 +8170,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8048,7 +8186,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -8090,7 +8228,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8104,11 +8242,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -8144,7 +8282,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8161,7 +8299,7 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -8197,7 +8335,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8214,7 +8352,7 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -8250,7 +8388,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8298,7 +8436,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8312,11 +8450,11 @@
       <c r="K16" s="4"/>
       <c r="L16" s="7"/>
       <c r="M16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -8356,7 +8494,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8373,7 +8511,7 @@
         <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -8404,7 +8542,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8418,7 +8556,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="7"/>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
@@ -8444,7 +8582,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8481,7 +8619,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8495,11 +8633,11 @@
       <c r="K20" s="4"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -8530,7 +8668,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8548,7 +8686,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -8587,7 +8725,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -8602,6 +8740,9 @@
       <c r="L22" s="5"/>
       <c r="M22" s="7"/>
       <c r="N22" s="5"/>
+      <c r="O22" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -8640,7 +8781,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8655,6 +8796,9 @@
       <c r="L23" s="5"/>
       <c r="M23" s="7"/>
       <c r="N23" s="5"/>
+      <c r="O23" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -8689,7 +8833,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -8741,7 +8885,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8795,7 +8939,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -8849,7 +8993,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8902,7 +9046,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -8955,7 +9099,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -9009,7 +9153,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9062,7 +9206,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -9114,7 +9258,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9165,7 +9309,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -9216,7 +9360,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -9267,7 +9411,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -9321,7 +9465,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -9375,7 +9519,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -9428,7 +9572,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -9484,12 +9628,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
@@ -9498,8 +9638,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -9510,6 +9648,12 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9529,208 +9673,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="45"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="22">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="22">
-        <v>41575</v>
-      </c>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41576</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9738,70 +9882,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -9861,7 +10005,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -9915,7 +10059,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9931,7 +10075,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -9973,7 +10117,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9990,7 +10134,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -10026,7 +10170,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10043,7 +10187,7 @@
         <v>23</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -10079,7 +10223,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10096,7 +10240,7 @@
         <v>23</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -10132,7 +10276,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10149,7 +10293,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -10185,7 +10329,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10202,7 +10346,7 @@
         <v>23</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -10241,7 +10385,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10258,7 +10402,7 @@
         <v>23</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -10297,7 +10441,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10345,7 +10489,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10394,7 +10538,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -10444,7 +10588,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10498,7 +10642,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -10552,7 +10696,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10605,7 +10749,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10658,7 +10802,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -10711,7 +10855,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -10764,7 +10908,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -10817,7 +10961,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -10870,7 +11014,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -10924,7 +11068,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10977,7 +11121,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11029,7 +11173,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11080,7 +11224,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11131,7 +11275,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11182,7 +11326,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11236,7 +11380,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11290,7 +11434,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -11343,7 +11487,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -11399,12 +11543,8 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
@@ -11413,8 +11553,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -11425,6 +11563,12 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -11444,204 +11588,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="45"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="45"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="22">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41576</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -11649,70 +11797,70 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="20" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="21"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -11772,7 +11920,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -11826,7 +11974,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11842,7 +11990,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -11884,7 +12032,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -11937,7 +12085,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11954,7 +12102,7 @@
         <v>23</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -11990,7 +12138,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -12043,7 +12191,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -12059,8 +12207,8 @@
       <c r="M15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>42</v>
+      <c r="N15" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -12096,7 +12244,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12147,7 +12295,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -12198,7 +12346,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12247,7 +12395,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -12295,7 +12443,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -12347,7 +12495,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -12397,7 +12545,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -12451,7 +12599,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12505,7 +12653,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -12558,7 +12706,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -12611,7 +12759,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -12664,7 +12812,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -12717,7 +12865,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -12770,7 +12918,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -12824,7 +12972,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -12877,7 +13025,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -12929,7 +13077,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -12980,7 +13128,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -13031,7 +13179,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -13082,7 +13230,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -13136,7 +13284,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -13190,7 +13338,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -13243,7 +13391,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -13299,6 +13447,1898 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="15" max="15" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
+        <v>41576</v>
+      </c>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="3"/>
+    </row>
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="6"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="6"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="7"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="6"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="7"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="6"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="7"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="6"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="6"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="6"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="6"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="6"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="6"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="6"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="6"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="6"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="6"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="6"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="6"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="6"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="6"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="6"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="6"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="6"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="6"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="6"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="6"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="7"/>
+      <c r="O34" s="10"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="6"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="6"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="6"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="6"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>

--- a/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="435" windowWidth="18420" windowHeight="11880" activeTab="8"/>
+    <workbookView xWindow="2370" yWindow="90" windowWidth="18420" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
   <si>
     <t>バイエル薬品
 手配管理システム</t>
@@ -1425,12 +1425,31 @@
     <t>コントロールのクリア</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>条件入力エリアに入力されている講演会番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1794,26 +1813,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1827,15 +1834,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,6 +1898,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3004,132 +3023,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41571</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -3144,58 +3163,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
+      <c r="AM3" s="43">
         <v>41604</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -3210,7 +3229,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3218,70 +3237,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3341,7 +3360,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3395,7 +3414,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3431,7 +3450,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3461,7 +3480,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3517,7 +3536,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3548,7 +3567,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3587,7 +3606,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3622,7 +3641,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3657,7 +3676,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3689,7 +3708,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3727,7 +3746,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3771,7 +3790,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3812,7 +3831,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3864,7 +3883,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3911,7 +3930,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3964,7 +3983,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4015,7 +4034,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4065,7 +4084,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4115,7 +4134,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4165,7 +4184,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4212,7 +4231,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4266,7 +4285,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4320,7 +4339,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4375,7 +4394,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4431,7 +4450,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4485,7 +4504,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4517,7 +4536,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4549,7 +4568,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4602,7 +4621,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -4658,14 +4677,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4682,6 +4693,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -4702,127 +4721,127 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41571</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -4837,58 +4856,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
+      <c r="AM3" s="43">
         <v>41604</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -4903,7 +4922,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4911,70 +4930,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -5034,7 +5053,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5088,7 +5107,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5120,7 +5139,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5146,7 +5165,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5203,7 +5222,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5255,7 +5274,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5305,7 +5324,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5354,7 +5373,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5403,7 +5422,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5454,7 +5473,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5502,7 +5521,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5535,7 +5554,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5567,7 +5586,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5599,7 +5618,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5629,7 +5648,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5659,7 +5678,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5686,7 +5705,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5739,7 +5758,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5792,7 +5811,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5845,7 +5864,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5899,7 +5918,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5952,7 +5971,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6004,7 +6023,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6055,7 +6074,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6106,7 +6125,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6157,7 +6176,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -6211,7 +6230,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -6265,7 +6284,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6318,7 +6337,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -6374,14 +6393,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6398,6 +6409,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -6415,130 +6434,130 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41571</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -6553,58 +6572,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
-        <v>41604</v>
-      </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43">
+        <v>41659</v>
+      </c>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -6619,7 +6638,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6627,70 +6646,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6750,7 +6769,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6804,7 +6823,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6862,7 +6881,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6914,7 +6933,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6967,7 +6986,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6979,7 +6998,12 @@
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
       <c r="K14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -7014,7 +7038,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7026,12 +7050,6 @@
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
       <c r="N15" s="9"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -7067,7 +7085,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7079,7 +7097,12 @@
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="s">
+        <v>136</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -7118,7 +7141,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7169,7 +7192,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7218,7 +7241,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7266,7 +7289,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7318,7 +7341,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7368,7 +7391,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7422,7 +7445,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7476,7 +7499,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7529,7 +7552,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7582,7 +7605,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7635,7 +7658,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7688,7 +7711,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7741,7 +7764,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7795,7 +7818,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -7848,7 +7871,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7900,7 +7923,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7951,7 +7974,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -8002,7 +8025,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -8053,7 +8076,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -8107,7 +8130,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -8161,7 +8184,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8214,7 +8237,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -8270,14 +8293,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8294,6 +8309,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -8315,127 +8338,127 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41604</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -8450,56 +8473,56 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -8512,7 +8535,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -8520,70 +8543,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -8643,7 +8666,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8697,7 +8720,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8755,7 +8778,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8810,7 +8833,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8864,7 +8887,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8914,7 +8937,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8968,7 +8991,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9019,7 +9042,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9071,7 +9094,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9122,7 +9145,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9173,7 +9196,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9224,7 +9247,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9275,7 +9298,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9328,7 +9351,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9381,7 +9404,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9435,7 +9458,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9488,7 +9511,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -9540,7 +9563,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -9593,7 +9616,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -9646,7 +9669,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -9700,7 +9723,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9753,7 +9776,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -9805,7 +9828,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9856,7 +9879,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -9907,7 +9930,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -9958,7 +9981,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10012,7 +10035,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10066,7 +10089,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10119,7 +10142,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -10175,12 +10198,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -10191,16 +10208,22 @@
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -10220,127 +10243,127 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41576</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -10355,58 +10378,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
+      <c r="AM3" s="43">
         <v>41604</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -10421,7 +10444,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -10429,70 +10452,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -10552,7 +10575,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10606,7 +10629,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10664,7 +10687,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10713,7 +10736,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10767,7 +10790,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10817,7 +10840,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10866,7 +10889,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10917,7 +10940,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10969,7 +10992,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11020,7 +11043,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11071,7 +11094,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11122,7 +11145,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11173,7 +11196,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -11226,7 +11249,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11279,7 +11302,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11333,7 +11356,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -11386,7 +11409,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -11438,7 +11461,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -11491,7 +11514,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -11544,7 +11567,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11598,7 +11621,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11651,7 +11674,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11703,7 +11726,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11754,7 +11777,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11805,7 +11828,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11856,7 +11879,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11910,7 +11933,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11964,7 +11987,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -12017,7 +12040,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -12073,6 +12096,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -12089,16 +12122,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -12115,131 +12138,131 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41604</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -12254,56 +12277,56 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -12316,7 +12339,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -12324,70 +12347,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -12447,7 +12470,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -12501,7 +12524,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -12537,7 +12560,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -12567,7 +12590,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -12603,7 +12626,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -12633,7 +12656,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -12691,7 +12714,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12723,7 +12746,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -12756,7 +12779,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12788,7 +12811,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -12820,7 +12843,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -12852,7 +12875,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -12885,7 +12908,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -12927,7 +12950,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12969,7 +12992,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -13016,7 +13039,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -13063,7 +13086,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -13112,7 +13135,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -13160,7 +13183,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -13207,7 +13230,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13254,7 +13277,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -13301,7 +13324,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -13348,7 +13371,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -13397,7 +13420,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -13448,7 +13471,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -13501,7 +13524,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -13554,7 +13577,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -13605,7 +13628,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -13658,7 +13681,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -13714,12 +13737,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -13730,16 +13747,22 @@
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -13755,130 +13778,130 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:O25"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41571</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -13893,58 +13916,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
+      <c r="AM3" s="43">
         <v>41604</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -13959,7 +13982,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -13967,70 +13990,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -14090,7 +14113,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -14144,7 +14167,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -14202,7 +14225,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -14256,7 +14279,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -14309,7 +14332,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -14362,7 +14385,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -14410,7 +14433,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -14468,7 +14491,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -14519,7 +14542,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -14562,7 +14585,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -14597,7 +14620,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -14629,7 +14652,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -14664,7 +14687,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -14699,7 +14722,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -14745,7 +14768,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -14792,7 +14815,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -14840,7 +14863,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -14888,7 +14911,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -14922,7 +14945,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -14969,7 +14992,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -15026,7 +15049,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -15068,7 +15091,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -15117,7 +15140,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -15175,7 +15198,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -15231,7 +15254,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -15283,7 +15306,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -15334,7 +15357,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -15381,7 +15404,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -15434,7 +15457,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -15490,14 +15513,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -15514,6 +15529,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -15532,130 +15555,130 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41571</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -15670,58 +15693,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
+      <c r="AM3" s="43">
         <v>41604</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -15736,7 +15759,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15744,70 +15767,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -15867,7 +15890,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -15921,7 +15944,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -15979,7 +16002,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -16031,7 +16054,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -16083,7 +16106,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -16136,7 +16159,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -16189,7 +16212,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -16244,7 +16267,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -16300,7 +16323,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -16354,7 +16377,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -16411,7 +16434,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -16467,7 +16490,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -16525,7 +16548,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -16583,7 +16606,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -16642,7 +16665,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -16694,7 +16717,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -16748,7 +16771,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -16802,7 +16825,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -16855,7 +16878,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -16908,7 +16931,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -16962,7 +16985,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -17015,7 +17038,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -17067,7 +17090,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -17118,7 +17141,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -17169,7 +17192,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -17220,7 +17243,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -17274,7 +17297,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -17328,7 +17351,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -17381,7 +17404,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -17437,14 +17460,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -17461,6 +17476,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -17478,131 +17501,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41571</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
@@ -17617,58 +17640,58 @@
       <c r="AY2" s="15"/>
       <c r="AZ2" s="15"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19">
+      <c r="AM3" s="43">
         <v>41604</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
@@ -17683,7 +17706,7 @@
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -17691,70 +17714,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -17814,7 +17837,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -17868,7 +17891,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -17926,7 +17949,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -17979,7 +18002,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -18032,7 +18055,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -18085,7 +18108,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -18138,7 +18161,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18194,7 +18217,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -18245,7 +18268,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -18294,7 +18317,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -18342,7 +18365,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -18394,7 +18417,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -18444,7 +18467,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -18498,7 +18521,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -18552,7 +18575,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -18605,7 +18628,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -18658,7 +18681,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -18711,7 +18734,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -18764,7 +18787,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -18817,7 +18840,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -18871,7 +18894,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -18924,7 +18947,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -18976,7 +18999,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -19027,7 +19050,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -19078,7 +19101,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -19129,7 +19152,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -19183,7 +19206,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -19237,7 +19260,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -19290,7 +19313,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -19346,14 +19369,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -19370,6 +19385,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>

--- a/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="90" windowWidth="18420" windowHeight="11880"/>
+    <workbookView xWindow="2370" yWindow="105" windowWidth="18420" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="153">
   <si>
     <t>バイエル薬品
 手配管理システム</t>
@@ -483,53 +483,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>画面入力された抽出条件に従って、請求テーブルからデータを抽出する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>請求テーブルの全項目 及び 講演会テーブルの必要項目</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トランザクションID</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -563,12 +516,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>講演会番号</t>
-  </si>
-  <si>
-    <t>講演会名</t>
   </si>
   <si>
     <t>トランザクションID</t>
@@ -885,17 +832,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <rPh sb="0" eb="3">
-      <t>ジッシビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BYL企画担当者(ローマ字)</t>
     <rPh sb="3" eb="5">
       <t>キカク</t>
@@ -1120,29 +1056,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>請求テーブル．トップツアー精算年月　昇順、</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BYL企画担当者</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>精算番号</t>
     <rPh sb="0" eb="2">
       <t>セイサン</t>
@@ -1157,39 +1070,6 @@
     <t>NOZOMI送信</t>
     <rPh sb="6" eb="8">
       <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BYL企画担当BU</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BYL企画担当エリア</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BYL企画担当営業所</t>
-    <rPh sb="3" eb="5">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>エイギョウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1218,9 +1098,6 @@
     <t>請求テーブル．トップツアー精算年月</t>
   </si>
   <si>
-    <t>請求テーブル．承認区分</t>
-  </si>
-  <si>
     <t>請求テーブル．送信フラグ</t>
   </si>
   <si>
@@ -1444,12 +1321,181 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>同一講演会№内でTimeStampが最大の会場テーブルのデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合番号</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開催日</t>
+    <rPh sb="0" eb="3">
+      <t>カイサイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求テーブル、承認テーブル、講演会テーブル、会場テーブルの必要項目</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面入力された抽出条件に従って、各テーブルからデータを抽出する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求テーブル．トップツアー精算年月　降順、</t>
+    <rPh sb="13" eb="15">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求テーブルとキーが同一の承認テーブルのデータ</t>
+    <rPh sb="10" eb="12">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業所</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画担当者</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合番号</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合名</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会場手配番号</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会場テーブル.講演会手配ID</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認テーブル．承認区分</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1805,46 +1851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,6 +1896,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1910,6 +1943,19 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2267,14 +2313,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2283,7 +2329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="2905125"/>
+          <a:off x="238125" y="4086225"/>
           <a:ext cx="1552575" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2407,6 +2453,148 @@
             <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート : 磁気ディスク 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5276850"/>
+          <a:ext cx="1552575" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>会場テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート : 磁気ディスク 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2881312"/>
+          <a:ext cx="1552575" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>承認テーブル</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3027,209 +3215,209 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
         <v>41604</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3237,70 +3425,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3360,7 +3548,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3414,7 +3602,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3427,10 +3615,10 @@
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="s">
         <v>132</v>
-      </c>
-      <c r="M11" t="s">
-        <v>144</v>
       </c>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -3450,7 +3638,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3480,7 +3668,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3493,10 +3681,10 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -3536,7 +3724,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3567,7 +3755,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3584,7 +3772,7 @@
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
@@ -3606,7 +3794,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3620,7 +3808,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="7"/>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
@@ -3641,7 +3829,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3655,7 +3843,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="7"/>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
@@ -3676,7 +3864,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3708,7 +3896,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3725,7 +3913,7 @@
         <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
@@ -3746,7 +3934,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3760,7 +3948,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="7"/>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -3790,7 +3978,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3831,7 +4019,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3844,10 +4032,10 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -3883,7 +4071,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3930,7 +4118,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3983,7 +4171,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4034,7 +4222,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4084,7 +4272,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4098,7 +4286,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -4134,7 +4322,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4148,7 +4336,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -4184,7 +4372,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4231,7 +4419,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4285,7 +4473,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4339,7 +4527,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4394,7 +4582,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4410,7 +4598,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -4450,7 +4638,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4464,7 +4652,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="5"/>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -4504,7 +4692,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4536,7 +4724,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4568,7 +4756,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4621,7 +4809,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -4677,6 +4865,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4693,16 +4891,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4721,208 +4909,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
         <v>41604</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4930,70 +5118,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -5053,7 +5241,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5107,7 +5295,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5123,7 +5311,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
@@ -5139,7 +5327,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5165,7 +5353,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5178,7 +5366,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
         <v>35</v>
@@ -5222,7 +5410,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5274,7 +5462,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5324,7 +5512,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5373,7 +5561,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5387,7 +5575,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -5422,7 +5610,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5436,7 +5624,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="T18" s="5"/>
@@ -5473,7 +5661,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5521,7 +5709,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5554,7 +5742,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5586,7 +5774,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5618,7 +5806,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5631,7 +5819,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
@@ -5648,7 +5836,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5661,7 +5849,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
@@ -5678,7 +5866,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5705,7 +5893,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5758,7 +5946,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5811,7 +5999,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5864,7 +6052,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5918,7 +6106,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5971,7 +6159,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6023,7 +6211,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6074,7 +6262,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6125,7 +6313,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6176,7 +6364,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -6230,7 +6418,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -6284,7 +6472,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6337,7 +6525,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -6393,6 +6581,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6409,16 +6607,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6437,208 +6625,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
         <v>41659</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6646,70 +6834,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6769,7 +6957,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6823,7 +7011,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6839,7 +7027,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -6881,7 +7069,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6894,10 +7082,10 @@
       <c r="J12" s="6"/>
       <c r="K12" s="4"/>
       <c r="M12" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -6933,7 +7121,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6950,7 +7138,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -6986,7 +7174,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7002,7 +7190,7 @@
         <v>22</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -7038,7 +7226,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7085,7 +7273,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7098,10 +7286,10 @@
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="5"/>
@@ -7141,7 +7329,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7192,7 +7380,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7241,7 +7429,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -7289,7 +7477,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -7341,7 +7529,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7391,7 +7579,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -7445,7 +7633,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7499,7 +7687,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -7552,7 +7740,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7605,7 +7793,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7658,7 +7846,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -7711,7 +7899,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -7764,7 +7952,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -7818,7 +8006,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -7871,7 +8059,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -7923,7 +8111,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7974,7 +8162,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -8025,7 +8213,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -8076,7 +8264,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -8130,7 +8318,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -8184,7 +8372,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8237,7 +8425,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -8293,6 +8481,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8309,16 +8507,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8338,204 +8526,204 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -8543,70 +8731,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -8666,7 +8854,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8720,7 +8908,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8733,10 +8921,10 @@
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -8778,7 +8966,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8795,7 +8983,7 @@
         <v>22</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -8833,7 +9021,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8850,7 +9038,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O13" s="5"/>
       <c r="T13" s="5"/>
@@ -8887,7 +9075,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8937,7 +9125,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8950,10 +9138,10 @@
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -8991,7 +9179,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9042,7 +9230,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9094,7 +9282,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9145,7 +9333,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9196,7 +9384,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9247,7 +9435,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9298,7 +9486,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9351,7 +9539,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9404,7 +9592,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9458,7 +9646,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9511,7 +9699,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -9563,7 +9751,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -9616,7 +9804,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -9669,7 +9857,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -9723,7 +9911,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9776,7 +9964,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -9828,7 +10016,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9879,7 +10067,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -9930,7 +10118,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -9981,7 +10169,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10035,7 +10223,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10089,7 +10277,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10142,7 +10330,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -10198,6 +10386,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -10214,16 +10412,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -10243,208 +10431,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41576</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
         <v>41604</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -10452,70 +10640,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -10575,7 +10763,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10629,7 +10817,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10642,10 +10830,10 @@
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -10687,7 +10875,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10736,7 +10924,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10749,10 +10937,10 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -10790,7 +10978,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10840,7 +11028,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10889,7 +11077,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10940,7 +11128,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10992,7 +11180,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11043,7 +11231,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -11094,7 +11282,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -11145,7 +11333,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -11196,7 +11384,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -11249,7 +11437,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -11302,7 +11490,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11356,7 +11544,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -11409,7 +11597,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -11461,7 +11649,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -11514,7 +11702,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -11567,7 +11755,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11621,7 +11809,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11674,7 +11862,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -11726,7 +11914,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -11777,7 +11965,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -11828,7 +12016,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -11879,7 +12067,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -11933,7 +12121,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -11987,7 +12175,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -12040,7 +12228,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -12096,12 +12284,10 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
@@ -12118,10 +12304,12 @@
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -12141,205 +12329,205 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41604</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -12347,70 +12535,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -12470,7 +12658,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -12524,7 +12712,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -12537,10 +12725,10 @@
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -12560,7 +12748,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -12590,7 +12778,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -12603,10 +12791,10 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
@@ -12626,7 +12814,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -12656,7 +12844,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -12669,10 +12857,10 @@
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -12714,7 +12902,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12746,7 +12934,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -12779,7 +12967,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -12811,7 +12999,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -12843,7 +13031,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -12875,7 +13063,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -12908,7 +13096,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -12950,7 +13138,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -12992,7 +13180,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -13039,7 +13227,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -13086,7 +13274,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -13135,7 +13323,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -13183,7 +13371,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -13230,7 +13418,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13277,7 +13465,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -13324,7 +13512,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -13371,7 +13559,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -13420,7 +13608,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -13471,7 +13659,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -13524,7 +13712,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -13577,7 +13765,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -13628,7 +13816,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -13681,7 +13869,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -13737,6 +13925,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -13753,16 +13951,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -13781,208 +13969,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
-        <v>41604</v>
-      </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41691</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -13990,70 +14178,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -14113,7 +14301,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -14167,7 +14355,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -14183,7 +14371,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -14225,7 +14413,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -14279,7 +14467,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -14296,7 +14484,7 @@
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -14332,7 +14520,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -14349,29 +14537,8 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
+        <v>143</v>
+      </c>
       <c r="AO14" s="5"/>
       <c r="AP14" s="6"/>
       <c r="AQ14" s="4"/>
@@ -14385,7 +14552,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -14398,7 +14565,12 @@
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
-      <c r="Q15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -14433,7 +14605,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -14446,17 +14618,13 @@
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -14491,7 +14659,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -14504,30 +14672,6 @@
       <c r="J17" s="6"/>
       <c r="K17" s="4"/>
       <c r="L17" s="7"/>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="Y17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="6"/>
@@ -14542,7 +14686,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -14555,12 +14699,27 @@
       <c r="J18" s="6"/>
       <c r="K18" s="4"/>
       <c r="L18" s="7"/>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>85</v>
-      </c>
+      <c r="M18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -14585,7 +14744,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -14598,12 +14757,28 @@
       <c r="J19" s="6"/>
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
-      <c r="P19" t="s">
-        <v>96</v>
-      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
       <c r="Y19" t="s">
-        <v>97</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
@@ -14620,7 +14795,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -14633,9 +14808,20 @@
       <c r="J20" s="6"/>
       <c r="K20" s="4"/>
       <c r="L20" s="7"/>
-      <c r="Y20" t="s">
-        <v>102</v>
-      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
@@ -14652,7 +14838,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -14666,10 +14852,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
@@ -14687,7 +14873,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -14700,11 +14886,8 @@
       <c r="J22" s="6"/>
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
-      <c r="P22" t="s">
-        <v>98</v>
-      </c>
       <c r="Y22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
@@ -14722,7 +14905,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -14735,23 +14918,12 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" t="s">
-        <v>86</v>
+      <c r="P23" t="s">
+        <v>88</v>
       </c>
       <c r="Y23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
+        <v>89</v>
+      </c>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
@@ -14768,7 +14940,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -14781,24 +14953,12 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="7"/>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" t="s">
-        <v>90</v>
+      <c r="P24" t="s">
+        <v>92</v>
       </c>
       <c r="Y24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
+        <v>89</v>
+      </c>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
@@ -14815,7 +14975,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -14828,17 +14988,15 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
       <c r="N25" t="s">
         <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC25" s="5"/>
+        <v>86</v>
+      </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
@@ -14863,7 +15021,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -14876,17 +15034,16 @@
       <c r="J26" s="6"/>
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="7"/>
       <c r="N26" t="s">
         <v>22</v>
       </c>
       <c r="O26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y26" t="s">
         <v>87</v>
       </c>
-      <c r="Y26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
@@ -14911,7 +15068,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -14924,9 +15081,23 @@
       <c r="J27" s="6"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
       <c r="Y27" t="s">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
@@ -14945,7 +15116,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -14958,14 +15129,15 @@
       <c r="J28" s="6"/>
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" t="s">
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -14992,7 +15164,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -15005,32 +15177,9 @@
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
       <c r="Y29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
+        <v>98</v>
+      </c>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -15049,7 +15198,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -15062,10 +15211,15 @@
       <c r="J30" s="6"/>
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>47</v>
+      </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
@@ -15091,7 +15245,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -15104,15 +15258,23 @@
       <c r="J31" s="6"/>
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="9" t="s">
-        <v>49</v>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>83</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="Y31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -15140,7 +15302,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -15153,22 +15315,6 @@
       <c r="J32" s="6"/>
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
@@ -15198,7 +15344,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -15211,22 +15357,15 @@
       <c r="J33" s="6"/>
       <c r="K33" s="4"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P33" s="5"/>
+        <v>49</v>
+      </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -15254,7 +15393,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -15267,16 +15406,22 @@
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="O34" s="9" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -15284,7 +15429,6 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
@@ -15306,7 +15450,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -15319,9 +15463,14 @@
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="9" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -15335,7 +15484,6 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
@@ -15357,7 +15505,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -15370,11 +15518,16 @@
       <c r="J36" s="6"/>
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -15404,7 +15557,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -15417,11 +15570,9 @@
       <c r="J37" s="6"/>
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="O37" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -15457,7 +15608,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -15513,6 +15664,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -15529,16 +15690,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -15558,208 +15709,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
-        <v>41604</v>
-      </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
+        <v>41691</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15767,70 +15918,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -15890,7 +16041,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -15944,7 +16095,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -15960,7 +16111,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -16002,7 +16153,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -16019,13 +16170,13 @@
         <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -16054,7 +16205,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -16071,13 +16222,13 @@
         <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -16106,7 +16257,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -16123,13 +16274,13 @@
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -16159,7 +16310,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -16176,13 +16327,13 @@
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -16212,7 +16363,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -16229,7 +16380,7 @@
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -16237,7 +16388,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -16267,7 +16418,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -16284,7 +16435,7 @@
         <v>22</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -16292,7 +16443,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -16323,7 +16474,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -16340,13 +16491,13 @@
         <v>22</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -16377,7 +16528,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -16393,30 +16544,12 @@
       <c r="M19" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
+      <c r="N19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
@@ -16434,7 +16567,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -16450,16 +16583,17 @@
       <c r="M20" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -16470,7 +16604,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="9"/>
+      <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
@@ -16490,7 +16624,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -16507,17 +16641,15 @@
         <v>22</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -16548,7 +16680,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -16565,7 +16697,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -16575,7 +16707,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
@@ -16606,7 +16738,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -16619,11 +16751,11 @@
       <c r="J23" s="6"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="7" t="s">
-        <v>125</v>
+      <c r="M23" t="s">
+        <v>22</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -16633,9 +16765,8 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="X23" s="5"/>
+        <v>111</v>
+      </c>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -16645,7 +16776,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
+      <c r="AH23" s="9"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
@@ -16665,7 +16796,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -16678,7 +16809,12 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -16686,7 +16822,9 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+      <c r="W24" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -16717,7 +16855,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -16771,7 +16909,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -16825,7 +16963,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -16878,7 +17016,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -16931,7 +17069,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -16985,7 +17123,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -17038,7 +17176,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -17090,7 +17228,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -17141,7 +17279,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -17192,7 +17330,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -17243,7 +17381,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -17297,7 +17435,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -17351,7 +17489,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -17404,7 +17542,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -17460,6 +17598,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -17476,16 +17624,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -17505,208 +17643,208 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41571</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39">
         <v>41604</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -17714,70 +17852,70 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
-    </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -17837,7 +17975,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="3"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -17891,7 +18029,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -17907,7 +18045,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -17949,7 +18087,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -18002,7 +18140,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -18019,7 +18157,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -18055,7 +18193,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -18072,7 +18210,7 @@
         <v>22</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -18108,7 +18246,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -18125,7 +18263,7 @@
         <v>22</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -18161,7 +18299,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18178,7 +18316,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -18217,7 +18355,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -18268,7 +18406,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -18317,7 +18455,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -18365,7 +18503,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -18417,7 +18555,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -18467,7 +18605,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -18521,7 +18659,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -18575,7 +18713,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -18628,7 +18766,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -18681,7 +18819,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -18734,7 +18872,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -18787,7 +18925,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -18840,7 +18978,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -18894,7 +19032,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -18947,7 +19085,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -18999,7 +19137,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -19050,7 +19188,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -19101,7 +19239,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -19152,7 +19290,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -19206,7 +19344,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -19260,7 +19398,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -19313,7 +19451,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -19369,6 +19507,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -19385,16 +19533,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(22_精算データ一覧).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="105" windowWidth="18420" windowHeight="11865"/>
+    <workbookView xWindow="2370" yWindow="105" windowWidth="18420" windowHeight="11865" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="155">
   <si>
     <t>バイエル薬品
 手配管理システム</t>
@@ -1487,6 +1487,26 @@
     <t>承認テーブル．承認区分</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求テーブル．更新日時</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOP送信日時</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1851,6 +1871,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,33 +1968,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1931,31 +1976,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3211,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -3222,200 +3242,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41571</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
         <v>41604</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -3427,66 +3447,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4865,16 +4885,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4891,6 +4901,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4915,200 +4935,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41571</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
         <v>41604</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -5120,66 +5140,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -6581,16 +6601,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6607,6 +6617,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6631,200 +6651,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41571</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
         <v>41659</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -6836,66 +6856,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -8481,16 +8501,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8507,6 +8517,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8532,196 +8552,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41604</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -8733,66 +8753,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -10386,6 +10406,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -10402,16 +10432,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -10437,200 +10457,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41576</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
         <v>41604</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -10642,66 +10662,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -12284,14 +12304,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -12308,6 +12320,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -12336,196 +12356,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41604</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -12537,66 +12557,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -13925,6 +13945,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -13941,16 +13971,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -13975,200 +13995,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41571</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
         <v>41691</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -14180,66 +14200,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -15664,16 +15684,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -15690,6 +15700,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -15705,7 +15725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -15715,200 +15735,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41571</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
-        <v>41691</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
+        <v>41696</v>
+      </c>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -15920,66 +15940,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -16697,28 +16717,11 @@
         <v>22</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+        <v>154</v>
+      </c>
       <c r="W22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="9"/>
+        <v>153</v>
+      </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
@@ -16755,7 +16758,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -16765,7 +16768,7 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
@@ -16809,11 +16812,11 @@
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="7" t="s">
-        <v>113</v>
+      <c r="M24" t="s">
+        <v>22</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -16823,9 +16826,8 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="X24" s="5"/>
+        <v>111</v>
+      </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -16835,7 +16837,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
+      <c r="AH24" s="9"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
@@ -16868,9 +16870,12 @@
       <c r="J25" s="6"/>
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="5"/>
+      <c r="M25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -16878,7 +16883,9 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
+      <c r="W25" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -17598,16 +17605,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -17624,6 +17621,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -17649,200 +17656,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="29" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="45"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="43" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="39">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="25">
         <v>41571</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="29" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="42" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="39">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="25">
         <v>41604</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="29" t="s">
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="42" t="s">
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -17854,66 +17861,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="19"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -19507,16 +19514,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -19533,6 +19530,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
